--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gphb5-Tshr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gphb5-Tshr.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4720256666666667</v>
+        <v>0.8807423333333334</v>
       </c>
       <c r="H2">
-        <v>1.416077</v>
+        <v>2.642227</v>
       </c>
       <c r="I2">
-        <v>0.2054017728864386</v>
+        <v>0.3875579930269023</v>
       </c>
       <c r="J2">
-        <v>0.2054017728864386</v>
+        <v>0.3875579930269024</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.167924</v>
+        <v>0.22092</v>
       </c>
       <c r="N2">
-        <v>0.503772</v>
+        <v>0.66276</v>
       </c>
       <c r="O2">
-        <v>0.04291332780772943</v>
+        <v>0.06768692722940421</v>
       </c>
       <c r="P2">
-        <v>0.04291332780772943</v>
+        <v>0.06768692722940423</v>
       </c>
       <c r="Q2">
-        <v>0.07926443804933334</v>
+        <v>0.19457359628</v>
       </c>
       <c r="R2">
-        <v>0.713379942444</v>
+        <v>1.75116236652</v>
       </c>
       <c r="S2">
-        <v>0.008814473612164529</v>
+        <v>0.02623260967118588</v>
       </c>
       <c r="T2">
-        <v>0.008814473612164531</v>
+        <v>0.02623260967118589</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4720256666666667</v>
+        <v>0.8807423333333334</v>
       </c>
       <c r="H3">
-        <v>1.416077</v>
+        <v>2.642227</v>
       </c>
       <c r="I3">
-        <v>0.2054017728864386</v>
+        <v>0.3875579930269023</v>
       </c>
       <c r="J3">
-        <v>0.2054017728864386</v>
+        <v>0.3875579930269024</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.897648</v>
       </c>
       <c r="O3">
-        <v>0.1616492990632312</v>
+        <v>0.193804638305004</v>
       </c>
       <c r="P3">
-        <v>0.1616492990632313</v>
+        <v>0.193804638305004</v>
       </c>
       <c r="Q3">
-        <v>0.2985795207662222</v>
+        <v>0.5571129757884444</v>
       </c>
       <c r="R3">
-        <v>2.687215686896</v>
+        <v>5.014016782096</v>
       </c>
       <c r="S3">
-        <v>0.03320305261343781</v>
+        <v>0.07511053666079205</v>
       </c>
       <c r="T3">
-        <v>0.03320305261343782</v>
+        <v>0.07511053666079208</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4720256666666667</v>
+        <v>0.8807423333333334</v>
       </c>
       <c r="H4">
-        <v>1.416077</v>
+        <v>2.642227</v>
       </c>
       <c r="I4">
-        <v>0.2054017728864386</v>
+        <v>0.3875579930269023</v>
       </c>
       <c r="J4">
-        <v>0.2054017728864386</v>
+        <v>0.3875579930269024</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.2560303333333334</v>
+        <v>0.1410223333333333</v>
       </c>
       <c r="N4">
-        <v>0.7680910000000001</v>
+        <v>0.423067</v>
       </c>
       <c r="O4">
-        <v>0.06542908472318174</v>
+        <v>0.04320735295153955</v>
       </c>
       <c r="P4">
-        <v>0.06542908472318174</v>
+        <v>0.04320735295153956</v>
       </c>
       <c r="Q4">
-        <v>0.1208528887785556</v>
+        <v>0.1242043389121111</v>
       </c>
       <c r="R4">
-        <v>1.087675999007</v>
+        <v>1.117839050209</v>
       </c>
       <c r="S4">
-        <v>0.01343925000047852</v>
+        <v>0.01674535499390367</v>
       </c>
       <c r="T4">
-        <v>0.01343925000047852</v>
+        <v>0.01674535499390368</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>22</v>
       </c>
       <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.8807423333333334</v>
+      </c>
+      <c r="H5">
+        <v>2.642227</v>
+      </c>
+      <c r="I5">
+        <v>0.3875579930269023</v>
+      </c>
+      <c r="J5">
+        <v>0.3875579930269024</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="L5">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G5">
-        <v>0.4720256666666667</v>
-      </c>
-      <c r="H5">
-        <v>1.416077</v>
-      </c>
-      <c r="I5">
-        <v>0.2054017728864386</v>
-      </c>
-      <c r="J5">
-        <v>0.2054017728864386</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
       <c r="M5">
-        <v>0.7839796666666666</v>
+        <v>0.114977</v>
       </c>
       <c r="N5">
-        <v>2.351939</v>
+        <v>0.344931</v>
       </c>
       <c r="O5">
-        <v>0.200347636015466</v>
+        <v>0.03522741187785264</v>
       </c>
       <c r="P5">
-        <v>0.200347636015466</v>
+        <v>0.03522741187785266</v>
       </c>
       <c r="Q5">
-        <v>0.3700585248114444</v>
+        <v>0.1012651112596667</v>
       </c>
       <c r="R5">
-        <v>3.330526723303</v>
+        <v>0.911386001337</v>
       </c>
       <c r="S5">
-        <v>0.04115175963118361</v>
+        <v>0.01365266504691263</v>
       </c>
       <c r="T5">
-        <v>0.04115175963118361</v>
+        <v>0.01365266504691264</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4720256666666667</v>
+        <v>0.8807423333333334</v>
       </c>
       <c r="H6">
-        <v>1.416077</v>
+        <v>2.642227</v>
       </c>
       <c r="I6">
-        <v>0.2054017728864386</v>
+        <v>0.3875579930269023</v>
       </c>
       <c r="J6">
-        <v>0.2054017728864386</v>
+        <v>0.3875579930269024</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.862788333333333</v>
+        <v>2.032918666666667</v>
       </c>
       <c r="N6">
-        <v>5.588365</v>
+        <v>6.098756</v>
       </c>
       <c r="O6">
-        <v>0.476039436797285</v>
+        <v>0.6228590342837411</v>
       </c>
       <c r="P6">
-        <v>0.4760394367972851</v>
+        <v>0.6228590342837412</v>
       </c>
       <c r="Q6">
-        <v>0.8792839049005555</v>
+        <v>1.790477529956889</v>
       </c>
       <c r="R6">
-        <v>7.913555144105</v>
+        <v>16.114297769612</v>
       </c>
       <c r="S6">
-        <v>0.09777934428202406</v>
+        <v>0.2413939972656813</v>
       </c>
       <c r="T6">
-        <v>0.09777934428202407</v>
+        <v>0.2413939972656813</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.4720256666666667</v>
+        <v>0.8807423333333334</v>
       </c>
       <c r="H7">
-        <v>1.416077</v>
+        <v>2.642227</v>
       </c>
       <c r="I7">
-        <v>0.2054017728864386</v>
+        <v>0.3875579930269023</v>
       </c>
       <c r="J7">
-        <v>0.2054017728864386</v>
+        <v>0.3875579930269024</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.209825</v>
+        <v>0.121463</v>
       </c>
       <c r="N7">
-        <v>0.629475</v>
+        <v>0.364389</v>
       </c>
       <c r="O7">
-        <v>0.05362121559310657</v>
+        <v>0.03721463535245846</v>
       </c>
       <c r="P7">
-        <v>0.05362121559310658</v>
+        <v>0.03721463535245847</v>
       </c>
       <c r="Q7">
-        <v>0.09904278550833334</v>
+        <v>0.1069776060336667</v>
       </c>
       <c r="R7">
-        <v>0.8913850695750001</v>
+        <v>0.962798454303</v>
       </c>
       <c r="S7">
-        <v>0.01101389274715003</v>
+        <v>0.01442282938842681</v>
       </c>
       <c r="T7">
-        <v>0.01101389274715004</v>
+        <v>0.01442282938842681</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>3.502718</v>
       </c>
       <c r="I8">
-        <v>0.5080687611769985</v>
+        <v>0.513773554739697</v>
       </c>
       <c r="J8">
-        <v>0.5080687611769984</v>
+        <v>0.513773554739697</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.167924</v>
+        <v>0.22092</v>
       </c>
       <c r="N8">
-        <v>0.503772</v>
+        <v>0.66276</v>
       </c>
       <c r="O8">
-        <v>0.04291332780772943</v>
+        <v>0.06768692722940421</v>
       </c>
       <c r="P8">
-        <v>0.04291332780772943</v>
+        <v>0.06768692722940423</v>
       </c>
       <c r="Q8">
-        <v>0.1960634724773334</v>
+        <v>0.25794015352</v>
       </c>
       <c r="R8">
-        <v>1.764571252296</v>
+        <v>2.32146138168</v>
       </c>
       <c r="S8">
-        <v>0.02180292129725553</v>
+        <v>0.03477575321205819</v>
       </c>
       <c r="T8">
-        <v>0.02180292129725553</v>
+        <v>0.0347757532120582</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>3.502718</v>
       </c>
       <c r="I9">
-        <v>0.5080687611769985</v>
+        <v>0.513773554739697</v>
       </c>
       <c r="J9">
-        <v>0.5080687611769984</v>
+        <v>0.513773554739697</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>1.897648</v>
       </c>
       <c r="O9">
-        <v>0.1616492990632312</v>
+        <v>0.193804638305004</v>
       </c>
       <c r="P9">
-        <v>0.1616492990632313</v>
+        <v>0.193804638305004</v>
       </c>
       <c r="Q9">
         <v>0.7385473119182223</v>
@@ -1013,10 +1013,10 @@
         <v>6.646925807264</v>
       </c>
       <c r="S9">
-        <v>0.08212895912018604</v>
+        <v>0.09957169794700313</v>
       </c>
       <c r="T9">
-        <v>0.08212895912018604</v>
+        <v>0.09957169794700316</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>3.502718</v>
       </c>
       <c r="I10">
-        <v>0.5080687611769985</v>
+        <v>0.513773554739697</v>
       </c>
       <c r="J10">
-        <v>0.5080687611769984</v>
+        <v>0.513773554739697</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.2560303333333334</v>
+        <v>0.1410223333333333</v>
       </c>
       <c r="N10">
-        <v>0.7680910000000001</v>
+        <v>0.423067</v>
       </c>
       <c r="O10">
-        <v>0.06542908472318174</v>
+        <v>0.04320735295153955</v>
       </c>
       <c r="P10">
-        <v>0.06542908472318174</v>
+        <v>0.04320735295153956</v>
       </c>
       <c r="Q10">
-        <v>0.2989340190375556</v>
+        <v>0.1646538217895556</v>
       </c>
       <c r="R10">
-        <v>2.690406171338001</v>
+        <v>1.481884396106</v>
       </c>
       <c r="S10">
-        <v>0.03324247402025182</v>
+        <v>0.02219879531680521</v>
       </c>
       <c r="T10">
-        <v>0.03324247402025182</v>
+        <v>0.02219879531680522</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,40 +1107,40 @@
         <v>3.502718</v>
       </c>
       <c r="I11">
-        <v>0.5080687611769985</v>
+        <v>0.513773554739697</v>
       </c>
       <c r="J11">
-        <v>0.5080687611769984</v>
+        <v>0.513773554739697</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.7839796666666666</v>
+        <v>0.114977</v>
       </c>
       <c r="N11">
-        <v>2.351939</v>
+        <v>0.344931</v>
       </c>
       <c r="O11">
-        <v>0.200347636015466</v>
+        <v>0.03522741187785264</v>
       </c>
       <c r="P11">
-        <v>0.200347636015466</v>
+        <v>0.03522741187785266</v>
       </c>
       <c r="Q11">
-        <v>0.9153532300224445</v>
+        <v>0.1342440024953334</v>
       </c>
       <c r="R11">
-        <v>8.238179070201999</v>
+        <v>1.208196022458</v>
       </c>
       <c r="S11">
-        <v>0.101790375235118</v>
+        <v>0.01809891262476378</v>
       </c>
       <c r="T11">
-        <v>0.101790375235118</v>
+        <v>0.01809891262476378</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>3.502718</v>
       </c>
       <c r="I12">
-        <v>0.5080687611769985</v>
+        <v>0.513773554739697</v>
       </c>
       <c r="J12">
-        <v>0.5080687611769984</v>
+        <v>0.513773554739697</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.862788333333333</v>
+        <v>2.032918666666667</v>
       </c>
       <c r="N12">
-        <v>5.588365</v>
+        <v>6.098756</v>
       </c>
       <c r="O12">
-        <v>0.476039436797285</v>
+        <v>0.6228590342837411</v>
       </c>
       <c r="P12">
-        <v>0.4760394367972851</v>
+        <v>0.6228590342837412</v>
       </c>
       <c r="Q12">
-        <v>2.174940741785556</v>
+        <v>2.373580268756445</v>
       </c>
       <c r="R12">
-        <v>19.57446667607</v>
+        <v>21.362222418808</v>
       </c>
       <c r="S12">
-        <v>0.2418607669249927</v>
+        <v>0.3200085001456925</v>
       </c>
       <c r="T12">
-        <v>0.2418607669249926</v>
+        <v>0.3200085001456925</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>3.502718</v>
       </c>
       <c r="I13">
-        <v>0.5080687611769985</v>
+        <v>0.513773554739697</v>
       </c>
       <c r="J13">
-        <v>0.5080687611769984</v>
+        <v>0.513773554739697</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.209825</v>
+        <v>0.121463</v>
       </c>
       <c r="N13">
-        <v>0.629475</v>
+        <v>0.364389</v>
       </c>
       <c r="O13">
-        <v>0.05362121559310657</v>
+        <v>0.03721463535245846</v>
       </c>
       <c r="P13">
-        <v>0.05362121559310658</v>
+        <v>0.03721463535245847</v>
       </c>
       <c r="Q13">
-        <v>0.2449859347833334</v>
+        <v>0.1418168788113333</v>
       </c>
       <c r="R13">
-        <v>2.20487341305</v>
+        <v>1.276351909302</v>
       </c>
       <c r="S13">
-        <v>0.02724326457919441</v>
+        <v>0.01911989549337418</v>
       </c>
       <c r="T13">
-        <v>0.02724326457919441</v>
+        <v>0.01911989549337418</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.658462</v>
+        <v>0.2242283333333333</v>
       </c>
       <c r="H14">
-        <v>1.975386</v>
+        <v>0.672685</v>
       </c>
       <c r="I14">
-        <v>0.286529465936563</v>
+        <v>0.09866845223340075</v>
       </c>
       <c r="J14">
-        <v>0.286529465936563</v>
+        <v>0.09866845223340076</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.167924</v>
+        <v>0.22092</v>
       </c>
       <c r="N14">
-        <v>0.503772</v>
+        <v>0.66276</v>
       </c>
       <c r="O14">
-        <v>0.04291332780772943</v>
+        <v>0.06768692722940421</v>
       </c>
       <c r="P14">
-        <v>0.04291332780772943</v>
+        <v>0.06768692722940423</v>
       </c>
       <c r="Q14">
-        <v>0.110571572888</v>
+        <v>0.0495365234</v>
       </c>
       <c r="R14">
-        <v>0.995144155992</v>
+        <v>0.4458287106</v>
       </c>
       <c r="S14">
-        <v>0.01229593289830937</v>
+        <v>0.006678564346160142</v>
       </c>
       <c r="T14">
-        <v>0.01229593289830937</v>
+        <v>0.006678564346160145</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.658462</v>
+        <v>0.2242283333333333</v>
       </c>
       <c r="H15">
-        <v>1.975386</v>
+        <v>0.672685</v>
       </c>
       <c r="I15">
-        <v>0.286529465936563</v>
+        <v>0.09866845223340075</v>
       </c>
       <c r="J15">
-        <v>0.286529465936563</v>
+        <v>0.09866845223340076</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.897648</v>
       </c>
       <c r="O15">
-        <v>0.1616492990632312</v>
+        <v>0.193804638305004</v>
       </c>
       <c r="P15">
-        <v>0.1616492990632313</v>
+        <v>0.193804638305004</v>
       </c>
       <c r="Q15">
-        <v>0.4165096991253333</v>
+        <v>0.1418354827644444</v>
       </c>
       <c r="R15">
-        <v>3.748587292128</v>
+        <v>1.27651934488</v>
       </c>
       <c r="S15">
-        <v>0.04631728732960741</v>
+        <v>0.01912240369720879</v>
       </c>
       <c r="T15">
-        <v>0.04631728732960742</v>
+        <v>0.0191224036972088</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>25</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.658462</v>
+        <v>0.2242283333333333</v>
       </c>
       <c r="H16">
-        <v>1.975386</v>
+        <v>0.672685</v>
       </c>
       <c r="I16">
-        <v>0.286529465936563</v>
+        <v>0.09866845223340075</v>
       </c>
       <c r="J16">
-        <v>0.286529465936563</v>
+        <v>0.09866845223340076</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,28 +1429,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.2560303333333334</v>
+        <v>0.1410223333333333</v>
       </c>
       <c r="N16">
-        <v>0.7680910000000001</v>
+        <v>0.423067</v>
       </c>
       <c r="O16">
-        <v>0.06542908472318174</v>
+        <v>0.04320735295153955</v>
       </c>
       <c r="P16">
-        <v>0.06542908472318174</v>
+        <v>0.04320735295153956</v>
       </c>
       <c r="Q16">
-        <v>0.1685862453473334</v>
+        <v>0.03162120276611111</v>
       </c>
       <c r="R16">
-        <v>1.517276208126</v>
+        <v>0.284590824895</v>
       </c>
       <c r="S16">
-        <v>0.0187473607024514</v>
+        <v>0.004263202640830666</v>
       </c>
       <c r="T16">
-        <v>0.0187473607024514</v>
+        <v>0.004263202640830669</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>22</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.658462</v>
+        <v>0.2242283333333333</v>
       </c>
       <c r="H17">
-        <v>1.975386</v>
+        <v>0.672685</v>
       </c>
       <c r="I17">
-        <v>0.286529465936563</v>
+        <v>0.09866845223340075</v>
       </c>
       <c r="J17">
-        <v>0.286529465936563</v>
+        <v>0.09866845223340076</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.7839796666666666</v>
+        <v>0.114977</v>
       </c>
       <c r="N17">
-        <v>2.351939</v>
+        <v>0.344931</v>
       </c>
       <c r="O17">
-        <v>0.200347636015466</v>
+        <v>0.03522741187785264</v>
       </c>
       <c r="P17">
-        <v>0.200347636015466</v>
+        <v>0.03522741187785266</v>
       </c>
       <c r="Q17">
-        <v>0.5162208192726666</v>
+        <v>0.02578110108166667</v>
       </c>
       <c r="R17">
-        <v>4.645987373454</v>
+        <v>0.232029909735</v>
       </c>
       <c r="S17">
-        <v>0.0574055011491644</v>
+        <v>0.003475834206176238</v>
       </c>
       <c r="T17">
-        <v>0.0574055011491644</v>
+        <v>0.00347583420617624</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>26</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.658462</v>
+        <v>0.2242283333333333</v>
       </c>
       <c r="H18">
-        <v>1.975386</v>
+        <v>0.672685</v>
       </c>
       <c r="I18">
-        <v>0.286529465936563</v>
+        <v>0.09866845223340075</v>
       </c>
       <c r="J18">
-        <v>0.286529465936563</v>
+        <v>0.09866845223340076</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.862788333333333</v>
+        <v>2.032918666666667</v>
       </c>
       <c r="N18">
-        <v>5.588365</v>
+        <v>6.098756</v>
       </c>
       <c r="O18">
-        <v>0.476039436797285</v>
+        <v>0.6228590342837411</v>
       </c>
       <c r="P18">
-        <v>0.4760394367972851</v>
+        <v>0.6228590342837412</v>
       </c>
       <c r="Q18">
-        <v>1.226575331543333</v>
+        <v>0.4558379644288889</v>
       </c>
       <c r="R18">
-        <v>11.03917798389</v>
+        <v>4.10254167986</v>
       </c>
       <c r="S18">
-        <v>0.1363993255902683</v>
+        <v>0.06145653687236743</v>
       </c>
       <c r="T18">
-        <v>0.1363993255902683</v>
+        <v>0.06145653687236745</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>27</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.658462</v>
+        <v>0.2242283333333333</v>
       </c>
       <c r="H19">
-        <v>1.975386</v>
+        <v>0.672685</v>
       </c>
       <c r="I19">
-        <v>0.286529465936563</v>
+        <v>0.09866845223340075</v>
       </c>
       <c r="J19">
-        <v>0.286529465936563</v>
+        <v>0.09866845223340076</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.209825</v>
+        <v>0.121463</v>
       </c>
       <c r="N19">
-        <v>0.629475</v>
+        <v>0.364389</v>
       </c>
       <c r="O19">
-        <v>0.05362121559310657</v>
+        <v>0.03721463535245846</v>
       </c>
       <c r="P19">
-        <v>0.05362121559310658</v>
+        <v>0.03721463535245847</v>
       </c>
       <c r="Q19">
-        <v>0.13816178915</v>
+        <v>0.02723544605166667</v>
       </c>
       <c r="R19">
-        <v>1.24345610235</v>
+        <v>0.245119014465</v>
       </c>
       <c r="S19">
-        <v>0.01536405826676213</v>
+        <v>0.003671910470657474</v>
       </c>
       <c r="T19">
-        <v>0.01536405826676213</v>
+        <v>0.003671910470657476</v>
       </c>
     </row>
   </sheetData>
